--- a/Data/EUDA/Cannabis_detaille/age_traitement_jamais_traite.xlsx
+++ b/Data/EUDA/Cannabis_detaille/age_traitement_jamais_traite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,82 +441,77 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Mean age.jamais.jamais</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mean age</t>
+          <t>&amp;lt;15.jamais.jamais</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>&amp;lt;15</t>
+          <t>15 to 19.jamais.jamais</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 24.jamais.jamais</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>20 to 24</t>
+          <t>25 to 29.jamais.jamais</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>25 to 29</t>
+          <t>30 to 34.jamais.jamais</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>30 to 34</t>
+          <t>35 to 39.jamais.jamais</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>35 to 39</t>
+          <t>40 to 44.jamais.jamais</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>40 to 44</t>
+          <t>45 to 49.jamais.jamais</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>45 to 49</t>
+          <t>50 to 54.jamais.jamais</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>50 to 54</t>
+          <t>55 to 59.jamais.jamais</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>55 to 59</t>
+          <t>60 to 64.jamais.jamais</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>60 to 64</t>
+          <t xml:space="preserve"> &gt; 64.jamais.jamais</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 64</t>
+          <t>Not known / missing.jamais.jamais</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>Total.jamais.jamais</t>
         </is>
       </c>
     </row>
@@ -527,51 +522,48 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="E2" t="n">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F2" t="n">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="G2" t="n">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="H2" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
         <v>666</v>
       </c>
     </row>
@@ -582,51 +574,48 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
+        <v>525</v>
+      </c>
+      <c r="E3" t="n">
+        <v>441</v>
+      </c>
+      <c r="F3" t="n">
+        <v>295</v>
+      </c>
+      <c r="G3" t="n">
+        <v>202</v>
+      </c>
+      <c r="H3" t="n">
+        <v>141</v>
+      </c>
+      <c r="I3" t="n">
+        <v>111</v>
+      </c>
+      <c r="J3" t="n">
         <v>44</v>
       </c>
-      <c r="E3" t="n">
-        <v>525</v>
-      </c>
-      <c r="F3" t="n">
-        <v>441</v>
-      </c>
-      <c r="G3" t="n">
-        <v>295</v>
-      </c>
-      <c r="H3" t="n">
-        <v>202</v>
-      </c>
-      <c r="I3" t="n">
-        <v>141</v>
-      </c>
-      <c r="J3" t="n">
-        <v>111</v>
-      </c>
       <c r="K3" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P3" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="n">
         <v>1850</v>
       </c>
     </row>
@@ -637,34 +626,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -679,9 +668,6 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
         <v>66</v>
       </c>
     </row>
@@ -692,49 +678,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="E5" t="n">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="n">
         <v>288</v>
       </c>
     </row>
@@ -745,47 +728,44 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F6" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H6" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
+      <c r="P6" t="n">
         <v>250</v>
       </c>
     </row>
@@ -796,47 +776,44 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
+        <v>119</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97</v>
+      </c>
+      <c r="F7" t="n">
+        <v>106</v>
+      </c>
+      <c r="G7" t="n">
+        <v>104</v>
+      </c>
+      <c r="H7" t="n">
+        <v>51</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" t="n">
         <v>11</v>
       </c>
-      <c r="E7" t="n">
-        <v>119</v>
-      </c>
-      <c r="F7" t="n">
-        <v>97</v>
-      </c>
-      <c r="G7" t="n">
-        <v>106</v>
-      </c>
-      <c r="H7" t="n">
-        <v>104</v>
-      </c>
-      <c r="I7" t="n">
-        <v>51</v>
-      </c>
-      <c r="J7" t="n">
-        <v>30</v>
-      </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
-      </c>
-      <c r="M7" t="n">
         <v>3</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="n">
         <v>539</v>
       </c>
     </row>
@@ -846,50 +823,47 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="E8" t="n">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="F8" t="n">
-        <v>421</v>
+        <v>281</v>
       </c>
       <c r="G8" t="n">
-        <v>281</v>
+        <v>160</v>
       </c>
       <c r="H8" t="n">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="I8" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="J8" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="K8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
         <v>1493</v>
       </c>
     </row>
@@ -900,35 +874,32 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C9" t="n">
         <v>32</v>
       </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>2</v>
       </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
+      <c r="P9" t="n">
         <v>11</v>
       </c>
     </row>
@@ -939,28 +910,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -969,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -981,9 +952,6 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
         <v>36</v>
       </c>
     </row>
@@ -994,51 +962,48 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D11" t="n">
-        <v>95</v>
+        <v>2775</v>
       </c>
       <c r="E11" t="n">
-        <v>2775</v>
+        <v>2989</v>
       </c>
       <c r="F11" t="n">
-        <v>2989</v>
+        <v>1874</v>
       </c>
       <c r="G11" t="n">
-        <v>1874</v>
+        <v>1049</v>
       </c>
       <c r="H11" t="n">
-        <v>1049</v>
+        <v>819</v>
       </c>
       <c r="I11" t="n">
-        <v>819</v>
+        <v>502</v>
       </c>
       <c r="J11" t="n">
-        <v>502</v>
+        <v>247</v>
       </c>
       <c r="K11" t="n">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="L11" t="n">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="M11" t="n">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N11" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
         <v>10581</v>
       </c>
     </row>
@@ -1049,51 +1014,48 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>432</v>
       </c>
       <c r="D12" t="n">
-        <v>432</v>
+        <v>5024</v>
       </c>
       <c r="E12" t="n">
-        <v>5024</v>
+        <v>3878</v>
       </c>
       <c r="F12" t="n">
-        <v>3878</v>
+        <v>2008</v>
       </c>
       <c r="G12" t="n">
-        <v>2008</v>
+        <v>1521</v>
       </c>
       <c r="H12" t="n">
-        <v>1521</v>
+        <v>958</v>
       </c>
       <c r="I12" t="n">
-        <v>958</v>
+        <v>606</v>
       </c>
       <c r="J12" t="n">
-        <v>606</v>
+        <v>232</v>
       </c>
       <c r="K12" t="n">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="L12" t="n">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="M12" t="n">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="N12" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
-        <v>62</v>
-      </c>
-      <c r="Q12" t="n">
         <v>14981</v>
       </c>
     </row>
@@ -1104,51 +1066,48 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="E13" t="n">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="F13" t="n">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="G13" t="n">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="H13" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I13" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="J13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K13" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
         <v>684</v>
       </c>
     </row>
@@ -1159,51 +1118,48 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>296</v>
       </c>
       <c r="E14" t="n">
-        <v>296</v>
+        <v>514</v>
       </c>
       <c r="F14" t="n">
-        <v>514</v>
+        <v>380</v>
       </c>
       <c r="G14" t="n">
-        <v>380</v>
+        <v>277</v>
       </c>
       <c r="H14" t="n">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="I14" t="n">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="J14" t="n">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="K14" t="n">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="L14" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
         <v>1895</v>
       </c>
     </row>
@@ -1214,51 +1170,48 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D15" t="n">
-        <v>85</v>
+        <v>492</v>
       </c>
       <c r="E15" t="n">
-        <v>492</v>
+        <v>337</v>
       </c>
       <c r="F15" t="n">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="G15" t="n">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="H15" t="n">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I15" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="J15" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
         <v>1463</v>
       </c>
     </row>
@@ -1269,49 +1222,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>793</v>
       </c>
       <c r="E16" t="n">
-        <v>793</v>
+        <v>1353</v>
       </c>
       <c r="F16" t="n">
-        <v>1353</v>
+        <v>787</v>
       </c>
       <c r="G16" t="n">
-        <v>787</v>
+        <v>430</v>
       </c>
       <c r="H16" t="n">
-        <v>430</v>
+        <v>258</v>
       </c>
       <c r="I16" t="n">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="J16" t="n">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="K16" t="n">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="L16" t="n">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="M16" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N16" t="n">
-        <v>24</v>
-      </c>
-      <c r="O16" t="n">
         <v>9</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="n">
         <v>4194</v>
       </c>
     </row>
@@ -1322,34 +1272,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1364,9 +1314,6 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
         <v>165</v>
       </c>
     </row>
@@ -1376,23 +1323,21 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2022</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1400,8 +1345,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
+      <c r="P18" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1412,41 +1356,38 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
+      <c r="P19" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1457,34 +1398,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>29</v>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
         <v>3</v>
       </c>
-      <c r="E20" t="n">
-        <v>18</v>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-      <c r="G20" t="n">
-        <v>17</v>
-      </c>
-      <c r="H20" t="n">
-        <v>12</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4</v>
-      </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1499,9 +1440,6 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
         <v>82</v>
       </c>
     </row>
@@ -1512,51 +1450,48 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D21" t="n">
-        <v>74</v>
+        <v>765</v>
       </c>
       <c r="E21" t="n">
-        <v>765</v>
+        <v>948</v>
       </c>
       <c r="F21" t="n">
-        <v>948</v>
+        <v>689</v>
       </c>
       <c r="G21" t="n">
-        <v>689</v>
+        <v>416</v>
       </c>
       <c r="H21" t="n">
-        <v>416</v>
+        <v>285</v>
       </c>
       <c r="I21" t="n">
-        <v>285</v>
+        <v>189</v>
       </c>
       <c r="J21" t="n">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="K21" t="n">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="L21" t="n">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="M21" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
         <v>3625</v>
       </c>
     </row>
@@ -1566,46 +1501,43 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2022</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>186</v>
+      </c>
       <c r="E22" t="n">
-        <v>186</v>
+        <v>334</v>
       </c>
       <c r="F22" t="n">
-        <v>334</v>
+        <v>194</v>
       </c>
       <c r="G22" t="n">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="H22" t="n">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="I22" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="J22" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K22" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
         <v>2</v>
       </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="n">
         <v>970</v>
       </c>
     </row>
@@ -1616,37 +1548,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>24</v>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="E23" t="n">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F23" t="n">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="G23" t="n">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="H23" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I23" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="J23" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1658,9 +1590,6 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
         <v>648</v>
       </c>
     </row>
@@ -1671,51 +1600,48 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
+        <v>103</v>
+      </c>
+      <c r="E24" t="n">
+        <v>190</v>
+      </c>
+      <c r="F24" t="n">
+        <v>198</v>
+      </c>
+      <c r="G24" t="n">
+        <v>163</v>
+      </c>
+      <c r="H24" t="n">
+        <v>95</v>
+      </c>
+      <c r="I24" t="n">
+        <v>68</v>
+      </c>
+      <c r="J24" t="n">
+        <v>26</v>
+      </c>
+      <c r="K24" t="n">
+        <v>18</v>
+      </c>
+      <c r="L24" t="n">
+        <v>13</v>
+      </c>
+      <c r="M24" t="n">
         <v>8</v>
       </c>
-      <c r="E24" t="n">
-        <v>103</v>
-      </c>
-      <c r="F24" t="n">
-        <v>190</v>
-      </c>
-      <c r="G24" t="n">
-        <v>198</v>
-      </c>
-      <c r="H24" t="n">
-        <v>163</v>
-      </c>
-      <c r="I24" t="n">
-        <v>95</v>
-      </c>
-      <c r="J24" t="n">
-        <v>68</v>
-      </c>
-      <c r="K24" t="n">
-        <v>26</v>
-      </c>
-      <c r="L24" t="n">
-        <v>18</v>
-      </c>
-      <c r="M24" t="n">
-        <v>13</v>
-      </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
         <v>896</v>
       </c>
     </row>
@@ -1725,39 +1651,39 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="E25" t="n">
-        <v>250</v>
+        <v>545</v>
       </c>
       <c r="F25" t="n">
-        <v>545</v>
+        <v>354</v>
       </c>
       <c r="G25" t="n">
-        <v>354</v>
+        <v>249</v>
       </c>
       <c r="H25" t="n">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="I25" t="n">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="J25" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K25" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1766,9 +1692,6 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
         <v>1606</v>
       </c>
     </row>
@@ -1779,41 +1702,38 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>26</v>
       </c>
       <c r="C26" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E26" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F26" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G26" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="H26" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I26" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>9</v>
-      </c>
-      <c r="K26" t="n">
         <v>4</v>
       </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="n">
+      <c r="P26" t="n">
         <v>250</v>
       </c>
     </row>
@@ -1824,25 +1744,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1866,9 +1786,6 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1879,51 +1796,48 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D28" t="n">
-        <v>108</v>
+        <v>2526</v>
       </c>
       <c r="E28" t="n">
-        <v>2526</v>
+        <v>1648</v>
       </c>
       <c r="F28" t="n">
-        <v>1648</v>
+        <v>1201</v>
       </c>
       <c r="G28" t="n">
-        <v>1201</v>
+        <v>1013</v>
       </c>
       <c r="H28" t="n">
-        <v>1013</v>
+        <v>787</v>
       </c>
       <c r="I28" t="n">
-        <v>787</v>
+        <v>532</v>
       </c>
       <c r="J28" t="n">
-        <v>532</v>
+        <v>320</v>
       </c>
       <c r="K28" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="L28" t="n">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="M28" t="n">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="N28" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="O28" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="n">
         <v>8529</v>
       </c>
     </row>
@@ -1934,49 +1848,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D29" t="n">
-        <v>95</v>
+        <v>584</v>
       </c>
       <c r="E29" t="n">
-        <v>584</v>
+        <v>415</v>
       </c>
       <c r="F29" t="n">
-        <v>415</v>
+        <v>245</v>
       </c>
       <c r="G29" t="n">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="H29" t="n">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="I29" t="n">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="J29" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K29" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L29" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M29" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
-      </c>
-      <c r="O29" t="n">
         <v>16</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="n">
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="n">
         <v>1816</v>
       </c>
     </row>
@@ -1987,51 +1898,48 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D30" t="n">
-        <v>125</v>
+        <v>293</v>
       </c>
       <c r="E30" t="n">
-        <v>293</v>
+        <v>136</v>
       </c>
       <c r="F30" t="n">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="G30" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H30" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
         <v>669</v>
       </c>
     </row>
@@ -2052,7 +1960,6 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2075,7 +1982,6 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2098,7 +2004,6 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
